--- a/CaseAndFatalityDemographicsData/2021-09-10.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-09-10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\9.02.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\9.09.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72246E34-0675-4212-804F-D65A844FEB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB80897A-2931-4668-9E80-001DFBA0616D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="5220" yWindow="165" windowWidth="21600" windowHeight="11385" tabRatio="806" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -234,12 +234,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,6 +310,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,12 +639,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -634,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -646,7 +667,7 @@
         <v>3.6303993439278323E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -658,7 +679,7 @@
         <v>2.0212223344567903E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -670,7 +691,7 @@
         <v>5.3705907649841483E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -682,7 +703,7 @@
         <v>0.20392243146746142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,7 +715,7 @@
         <v>0.21491364050045506</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -706,7 +727,7 @@
         <v>0.18597045675024251</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -718,7 +739,7 @@
         <v>0.1542469671663883</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -730,7 +751,7 @@
         <v>5.5966156277190489E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -742,7 +763,7 @@
         <v>3.8454229965296183E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -754,7 +775,7 @@
         <v>2.4362679894788426E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -766,7 +787,7 @@
         <v>1.6551820700277029E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -778,7 +799,7 @@
         <v>2.7663042934722819E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -790,7 +811,7 @@
         <v>4.0004400484053244E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -817,9 +838,9 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -830,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -846,7 +867,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -862,7 +883,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -878,7 +899,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -908,12 +929,12 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -929,7 +950,7 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -945,7 +966,7 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -961,7 +982,7 @@
       <c r="H3" s="19"/>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -977,7 +998,7 @@
       <c r="H4" s="19"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -993,7 +1014,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1030,7 @@
       <c r="H6" s="19"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1046,7 @@
       <c r="H7" s="19"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1043,81 +1064,81 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="18"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="18"/>
       <c r="C18" s="22"/>
       <c r="D18" s="18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
       <c r="B19" s="18"/>
       <c r="C19" s="22"/>
       <c r="D19" s="18"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E20" s="18"/>
       <c r="F20" s="21"/>
       <c r="G20" s="22"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -1134,15 +1155,15 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1162,142 +1183,142 @@
       </c>
       <c r="C2" s="9">
         <f>B2/$B$15</f>
-        <v>1.7668468850489416E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.714324898854831E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.4735856390685181E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.7429198381677297E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>7.5974416057104487E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>8.2287595145031885E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>368</v>
+        <v>395</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="0"/>
-        <v>6.5019965369801057E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+        <v>6.7715833504765821E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>1177</v>
+        <v>1278</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="0"/>
-        <v>2.0795787837026042E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+        <v>2.1909072207364738E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6">
-        <v>3226</v>
+        <v>3434</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="0"/>
-        <v>5.6998480511678856E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+        <v>5.8869917026674892E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>6801</v>
+        <v>7106</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="0"/>
-        <v>0.12016325665217852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12181992731262428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>5420</v>
+        <v>5615</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="0"/>
-        <v>9.5763101169652642E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+        <v>9.6259343070698764E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>6804</v>
+        <v>7017</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="0"/>
-        <v>0.12021626205873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12029417815264348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>7472</v>
+        <v>7668</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="0"/>
-        <v>0.13201879925085691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.13145443324418843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>7282</v>
+        <v>7446</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="0"/>
-        <v>0.12866179016926393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.12764863196873072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>17981</v>
+        <v>18299</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="0"/>
-        <v>0.31769673840065021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.31370431324144554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -1309,13 +1330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="7">
         <f>SUM(B2:B14)</f>
-        <v>56598</v>
+        <v>58332</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="0"/>
@@ -1332,12 +1353,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -1348,31 +1369,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="6">
-        <v>23678</v>
+        <v>24369</v>
       </c>
       <c r="C2" s="9">
         <f>B2/$B$5</f>
-        <v>0.41835400544188839</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.41776383460193378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="6">
-        <v>32919</v>
+        <v>33962</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58162832608926107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>0.58221902214907773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1381,16 +1402,16 @@
       </c>
       <c r="C4" s="9">
         <f t="shared" si="0"/>
-        <v>1.7668468850489415E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>1.7143248988548311E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>56598</v>
+        <v>58332</v>
       </c>
       <c r="C5" s="13">
         <f t="shared" si="0"/>
@@ -1404,18 +1425,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5030A505-56A3-4E91-AD33-A7ADAD482E9C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.7" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1426,91 +1447,184 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>1144</v>
+      <c r="B2" s="6">
+        <v>1168</v>
       </c>
       <c r="C2" s="9">
         <f t="shared" ref="C2" si="0">B2/$B$8</f>
-        <v>2.0212728364959891E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>2.0023314818624426E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>5753</v>
+      <c r="B3" s="6">
+        <v>5903</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" si="1">B3/$B$8</f>
-        <v>0.10164670129686561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.10119659877940067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>25727</v>
+      <c r="B4" s="6">
+        <v>26389</v>
       </c>
       <c r="C4" s="9">
         <f t="shared" si="1"/>
-        <v>0.4545566981165412</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.45239319755880136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5">
-        <v>316</v>
+      <c r="B5" s="6">
+        <v>326</v>
       </c>
       <c r="C5" s="9">
         <f t="shared" si="1"/>
-        <v>5.5832361567546554E-3</v>
-      </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+        <v>5.5886991702667485E-3</v>
+      </c>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>23631</v>
+      <c r="B6" s="6">
+        <v>24518</v>
       </c>
       <c r="C6" s="9">
         <f>B6/$B$8</f>
-        <v>0.41752358740591539</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+        <v>0.42031817870122745</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
-        <v>27</v>
+      <c r="B7" s="6">
+        <v>28</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="1"/>
-        <v>4.7704865896321423E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+        <v>4.8001097167935265E-4</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="24"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>56598</v>
+        <v>58332</v>
       </c>
       <c r="C8" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
